--- a/Data/raw_data/Summer_2022_chl_a_import.xlsx
+++ b/Data/raw_data/Summer_2022_chl_a_import.xlsx
@@ -1,13 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhD_code\WY-zoops\Data\raw_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE06F756-3682-4944-940B-E9930A9D17CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="summer_2022_chl_a" sheetId="1" r:id="rId4"/>
+    <sheet name="summer_2022_chl_a" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">summer_2022_chl_a!$A$1:$E$142</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="lHQ0rdhMiseZngMbcpn7KbzLodmSgkBscC7nMjeyFig="/>
     </ext>
@@ -495,26 +518,31 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -523,46 +551,45 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -752,31 +779,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.75"/>
-    <col customWidth="1" min="2" max="2" width="11.13"/>
-    <col customWidth="1" min="3" max="3" width="19.0"/>
-    <col customWidth="1" min="4" max="4" width="31.88"/>
-    <col customWidth="1" min="5" max="5" width="11.63"/>
-    <col customWidth="1" min="6" max="6" width="12.63"/>
+    <col min="1" max="1" width="10.77734375" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -793,12 +820,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>2.0220621E7</v>
+        <v>20220621</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -807,15 +834,15 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>0.4861102799999999</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
+        <v>0.48611027999999989</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>2.0220622E7</v>
+        <v>20220622</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
@@ -824,15 +851,15 @@
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>0.6605716800000001</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
+        <v>0.66057168000000011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>2.0220623E7</v>
+        <v>20220623</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -841,15 +868,15 @@
         <v>11</v>
       </c>
       <c r="E4" s="1">
-        <v>0.6294866373626372</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
+        <v>0.62948663736263721</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1">
-        <v>2.0220603E7</v>
+        <v>20220603</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
@@ -858,15 +885,15 @@
         <v>13</v>
       </c>
       <c r="E5" s="1">
-        <v>0.9627456000000001</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
+        <v>0.96274560000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1">
-        <v>2.0220621E7</v>
+        <v>20220621</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
@@ -875,15 +902,15 @@
         <v>14</v>
       </c>
       <c r="E6" s="1">
-        <v>0.9386936400000001</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
+        <v>0.93869364000000011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1">
-        <v>2.0220621E7</v>
+        <v>20220621</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
@@ -892,15 +919,15 @@
         <v>15</v>
       </c>
       <c r="E7" s="1">
-        <v>0.9437750400000002</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
+        <v>0.94377504000000023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1">
-        <v>2.0220621E7</v>
+        <v>20220621</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
@@ -912,12 +939,12 @@
         <v>1.1358519599999999</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="1">
-        <v>2.0220715E7</v>
+        <v>20220715</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
@@ -926,15 +953,15 @@
         <v>17</v>
       </c>
       <c r="E9" s="1">
-        <v>0.6077251200000002</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
+        <v>0.60772512000000023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="1">
-        <v>2.0220715E7</v>
+        <v>20220715</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
@@ -943,15 +970,15 @@
         <v>18</v>
       </c>
       <c r="E10" s="1">
-        <v>0.40751796</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
+        <v>0.40751796000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="1">
-        <v>2.0220715E7</v>
+        <v>20220715</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
@@ -960,15 +987,15 @@
         <v>19</v>
       </c>
       <c r="E11" s="1">
-        <v>0.46849476</v>
-      </c>
-    </row>
-    <row r="12" ht="15.0" customHeight="1">
+        <v>0.46849476000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1">
-        <v>2.0220726E7</v>
+        <v>20220727</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>6</v>
@@ -980,12 +1007,12 @@
         <v>0.57351036</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>2.0220726E7</v>
+        <v>20220727</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
@@ -997,12 +1024,12 @@
         <v>0.42716603999999997</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>2.0220726E7</v>
+        <v>20220727</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>10</v>
@@ -1011,15 +1038,15 @@
         <v>22</v>
       </c>
       <c r="E14" s="1">
-        <v>0.57215532</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
+        <v>0.57215532000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="1">
-        <v>2.0220812E7</v>
+        <v>20220812</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>6</v>
@@ -1031,12 +1058,12 @@
         <v>0.67750968</v>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="1">
-        <v>2.0220812E7</v>
+        <v>20220812</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
@@ -1048,12 +1075,12 @@
         <v>0.49322424000000004</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1">
-        <v>2.0220812E7</v>
+        <v>20220812</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>10</v>
@@ -1062,15 +1089,15 @@
         <v>25</v>
       </c>
       <c r="E17" s="1">
-        <v>0.69580272</v>
-      </c>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
+        <v>0.69580271999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="1">
-        <v>2.0220831E7</v>
+        <v>20220831</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>6</v>
@@ -1079,15 +1106,15 @@
         <v>26</v>
       </c>
       <c r="E18" s="1">
-        <v>0.58875456</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
+        <v>0.58875456000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="1">
-        <v>2.0220831E7</v>
+        <v>20220831</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>8</v>
@@ -1096,15 +1123,15 @@
         <v>27</v>
       </c>
       <c r="E19" s="1">
-        <v>0.3953226000000001</v>
-      </c>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
+        <v>0.39532260000000008</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="1">
-        <v>2.0220831E7</v>
+        <v>20220831</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>10</v>
@@ -1113,15 +1140,15 @@
         <v>28</v>
       </c>
       <c r="E20" s="1">
-        <v>0.52269636</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
+        <v>0.52269635999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="1">
-        <v>2.0220902E7</v>
+        <v>20220902</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>6</v>
@@ -1130,15 +1157,15 @@
         <v>29</v>
       </c>
       <c r="E21" s="1">
-        <v>0.72154848</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
+        <v>0.72154848000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="1">
-        <v>2.0220902E7</v>
+        <v>20220902</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>8</v>
@@ -1147,15 +1174,15 @@
         <v>30</v>
       </c>
       <c r="E22" s="1">
-        <v>0.49288548</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
+        <v>0.49288547999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="1">
-        <v>2.0220902E7</v>
+        <v>20220902</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>10</v>
@@ -1164,15 +1191,15 @@
         <v>31</v>
       </c>
       <c r="E23" s="1">
-        <v>0.5023707599999999</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
+        <v>0.50237075999999992</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="1">
-        <v>2.0220928E7</v>
+        <v>20220928</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>6</v>
@@ -1181,15 +1208,15 @@
         <v>32</v>
       </c>
       <c r="E24" s="1">
-        <v>0.6917376000000001</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
+        <v>0.69173760000000006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="1">
-        <v>2.0220928E7</v>
+        <v>20220928</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>8</v>
@@ -1198,15 +1225,15 @@
         <v>33</v>
       </c>
       <c r="E25" s="1">
-        <v>0.64702128</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
+        <v>0.64702128000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="1">
-        <v>2.0220928E7</v>
+        <v>20220928</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>10</v>
@@ -1215,15 +1242,15 @@
         <v>34</v>
       </c>
       <c r="E26" s="1">
-        <v>0.75135936</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
+        <v>0.75135936000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B27" s="1">
-        <v>2.0221017E7</v>
+        <v>20221017</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>6</v>
@@ -1235,12 +1262,12 @@
         <v>0.9044788800000001</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="1">
-        <v>2.0221017E7</v>
+        <v>20221017</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>8</v>
@@ -1252,12 +1279,12 @@
         <v>0.47662499999999997</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="1">
-        <v>2.0221017E7</v>
+        <v>20221017</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>10</v>
@@ -1266,15 +1293,15 @@
         <v>37</v>
       </c>
       <c r="E29" s="1">
-        <v>0.6744608400000002</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
+        <v>0.67446084000000017</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B30" s="1">
-        <v>2.0220601E7</v>
+        <v>20220601</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>6</v>
@@ -1283,15 +1310,15 @@
         <v>39</v>
       </c>
       <c r="E30" s="1">
-        <v>3.618624</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
+        <v>3.6186240000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B31" s="1">
-        <v>2.0220601E7</v>
+        <v>20220601</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>8</v>
@@ -1300,15 +1327,15 @@
         <v>40</v>
       </c>
       <c r="E31" s="1">
-        <v>3.4085928</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
+        <v>3.4085928000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B32" s="1">
-        <v>2.0220601E7</v>
+        <v>20220601</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>10</v>
@@ -1320,12 +1347,12 @@
         <v>2.7141347999999996</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B33" s="1">
-        <v>2.0220725E7</v>
+        <v>20220725</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>6</v>
@@ -1334,15 +1361,15 @@
         <v>42</v>
       </c>
       <c r="E33" s="1">
-        <v>4.506175200000001</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
+        <v>4.5061752000000013</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B34" s="1">
-        <v>2.0220725E7</v>
+        <v>20220725</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>8</v>
@@ -1351,15 +1378,15 @@
         <v>43</v>
       </c>
       <c r="E34" s="1">
-        <v>4.384221599999998</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
+        <v>4.3842215999999983</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B35" s="1">
-        <v>2.0220725E7</v>
+        <v>20220725</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>10</v>
@@ -1371,12 +1398,12 @@
         <v>2.9682048000000005</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B36" s="1">
-        <v>2.0220815E7</v>
+        <v>20220815</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>6</v>
@@ -1388,12 +1415,12 @@
         <v>2.3076228000000003</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B37" s="1">
-        <v>2.0220815E7</v>
+        <v>20220815</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>8</v>
@@ -1402,15 +1429,15 @@
         <v>46</v>
       </c>
       <c r="E37" s="1">
-        <v>2.1551808</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
+        <v>2.1551808000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B38" s="1">
-        <v>2.0220815E7</v>
+        <v>20220815</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>10</v>
@@ -1419,15 +1446,15 @@
         <v>47</v>
       </c>
       <c r="E38" s="1">
-        <v>2.5887936</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
+        <v>2.5887935999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>2.0220831E7</v>
+        <v>20220831</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>6</v>
@@ -1439,12 +1466,12 @@
         <v>2.3008475999999995</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B40" s="1">
-        <v>2.0220831E7</v>
+        <v>20220831</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>8</v>
@@ -1456,12 +1483,12 @@
         <v>1.3624824000000002</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B41" s="1">
-        <v>2.0220831E7</v>
+        <v>20220831</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>10</v>
@@ -1473,12 +1500,12 @@
         <v>1.2100404000000002</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B42" s="1">
-        <v>2.022092E7</v>
+        <v>20220920</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>6</v>
@@ -1487,15 +1514,15 @@
         <v>51</v>
       </c>
       <c r="E42" s="1">
-        <v>2.449902</v>
-      </c>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
+        <v>2.4499019999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B43" s="1">
-        <v>2.022092E7</v>
+        <v>20220920</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>8</v>
@@ -1504,15 +1531,15 @@
         <v>52</v>
       </c>
       <c r="E43" s="1">
-        <v>4.435035600000001</v>
-      </c>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
+        <v>4.4350356000000009</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B44" s="1">
-        <v>2.022092E7</v>
+        <v>20220920</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>10</v>
@@ -1521,15 +1548,15 @@
         <v>53</v>
       </c>
       <c r="E44" s="1">
-        <v>4.567152</v>
-      </c>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
+        <v>4.5671520000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B45" s="1">
-        <v>2.0221019E7</v>
+        <v>20221019</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>6</v>
@@ -1538,15 +1565,15 @@
         <v>54</v>
       </c>
       <c r="E45" s="1">
-        <v>2.419413600000001</v>
-      </c>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
+        <v>2.4194136000000008</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B46" s="1">
-        <v>2.0221019E7</v>
+        <v>20221019</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>8</v>
@@ -1558,12 +1585,12 @@
         <v>1.3184435999999997</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B47" s="1">
-        <v>2.0221019E7</v>
+        <v>20221019</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>10</v>
@@ -1575,12 +1602,12 @@
         <v>3.9472211999999995</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B48" s="1">
-        <v>2.0220623E7</v>
+        <v>20220623</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>6</v>
@@ -1592,12 +1619,12 @@
         <v>2.0535527999999994</v>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B49" s="1">
-        <v>2.0220623E7</v>
+        <v>20220623</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>8</v>
@@ -1606,15 +1633,15 @@
         <v>59</v>
       </c>
       <c r="E49" s="1">
-        <v>2.2839096</v>
-      </c>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
+        <v>2.2839095999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B50" s="1">
-        <v>2.0220623E7</v>
+        <v>20220623</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>10</v>
@@ -1626,12 +1653,12 @@
         <v>1.9316733333333334</v>
       </c>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B51" s="1">
-        <v>2.0220726E7</v>
+        <v>20220726</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>6</v>
@@ -1640,15 +1667,15 @@
         <v>61</v>
       </c>
       <c r="E51" s="1">
-        <v>6.779254799999999</v>
-      </c>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
+        <v>6.7792547999999986</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B52" s="1">
-        <v>2.0220726E7</v>
+        <v>20220726</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>8</v>
@@ -1660,12 +1687,12 @@
         <v>5.7053856000000005</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B53" s="1">
-        <v>2.0220726E7</v>
+        <v>20220726</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>10</v>
@@ -1677,12 +1704,12 @@
         <v>1.8265836000000009</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B54" s="1">
-        <v>2.0220817E7</v>
+        <v>20220817</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>6</v>
@@ -1694,12 +1721,12 @@
         <v>3.3510036000000007</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B55" s="1">
-        <v>2.0220817E7</v>
+        <v>20220817</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>8</v>
@@ -1711,12 +1738,12 @@
         <v>3.3340655999999984</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B56" s="1">
-        <v>2.0220817E7</v>
+        <v>20220817</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>10</v>
@@ -1725,15 +1752,15 @@
         <v>66</v>
       </c>
       <c r="E56" s="1">
-        <v>2.947879199999999</v>
-      </c>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
+        <v>2.9478791999999991</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B57" s="1">
-        <v>2.0220907E7</v>
+        <v>20220907</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>6</v>
@@ -1742,15 +1769,15 @@
         <v>67</v>
       </c>
       <c r="E57" s="1">
-        <v>4.014973199999999</v>
-      </c>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
+        <v>4.0149731999999991</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B58" s="1">
-        <v>2.0220907E7</v>
+        <v>20220907</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>8</v>
@@ -1762,12 +1789,12 @@
         <v>3.2527632000000013</v>
       </c>
     </row>
-    <row r="59" ht="14.25" customHeight="1">
+    <row r="59" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B59" s="1">
-        <v>2.0220907E7</v>
+        <v>20220907</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>10</v>
@@ -1779,12 +1806,12 @@
         <v>3.3069647999999994</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B60" s="1">
-        <v>2.022093E7</v>
+        <v>20220930</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>6</v>
@@ -1794,15 +1821,15 @@
       </c>
       <c r="E60" s="1">
         <f>AVERAGE(5.1532068, 5.5902072)</f>
-        <v>5.371707</v>
-      </c>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
+        <v>5.3717070000000007</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B61" s="1">
-        <v>2.022093E7</v>
+        <v>20220930</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>8</v>
@@ -1811,15 +1838,15 @@
         <v>71</v>
       </c>
       <c r="E61" s="1">
-        <v>5.932354799999998</v>
-      </c>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
+        <v>5.9323547999999979</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B62" s="1">
-        <v>2.022093E7</v>
+        <v>20220930</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>10</v>
@@ -1828,16 +1855,16 @@
         <v>72</v>
       </c>
       <c r="E62" s="1">
-        <f>average(10.2589872, 7.6031088)</f>
-        <v>8.931048</v>
-      </c>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
+        <f>AVERAGE(10.2589872, 7.6031088)</f>
+        <v>8.9310480000000005</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B63" s="1">
-        <v>2.022102E7</v>
+        <v>20221020</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>6</v>
@@ -1846,15 +1873,15 @@
         <v>73</v>
       </c>
       <c r="E63" s="1">
-        <v>8.32128</v>
-      </c>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
+        <v>8.3212799999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B64" s="1">
-        <v>2.022102E7</v>
+        <v>20221020</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>8</v>
@@ -1866,12 +1893,12 @@
         <v>10.956832799999997</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B65" s="1">
-        <v>2.022102E7</v>
+        <v>20221020</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>10</v>
@@ -1880,15 +1907,15 @@
         <v>75</v>
       </c>
       <c r="E65" s="1">
-        <v>7.020441600000004</v>
-      </c>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
+        <v>7.0204416000000043</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B66" s="1">
-        <v>2.0220728E7</v>
+        <v>20220728</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>77</v>
@@ -1897,15 +1924,15 @@
         <v>78</v>
       </c>
       <c r="E66" s="1">
-        <v>0.26185116</v>
-      </c>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
+        <v>0.26185116000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B67" s="1">
-        <v>2.0220728E7</v>
+        <v>20220728</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>79</v>
@@ -1917,12 +1944,12 @@
         <v>0.33841092000000006</v>
       </c>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B68" s="1">
-        <v>2.0220728E7</v>
+        <v>20220728</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>81</v>
@@ -1934,12 +1961,12 @@
         <v>0.27621458400000004</v>
       </c>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B69" s="1">
-        <v>2.0221006E7</v>
+        <v>20221006</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>77</v>
@@ -1948,15 +1975,15 @@
         <v>83</v>
       </c>
       <c r="E69" s="1">
-        <v>0.7266298799999998</v>
-      </c>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
+        <v>0.72662987999999984</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B70" s="1">
-        <v>2.0221006E7</v>
+        <v>20221006</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>79</v>
@@ -1965,15 +1992,15 @@
         <v>84</v>
       </c>
       <c r="E70" s="1">
-        <v>0.61585536</v>
-      </c>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
+        <v>0.61585535999999996</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B71" s="1">
-        <v>2.0221006E7</v>
+        <v>20221006</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>81</v>
@@ -1982,15 +2009,15 @@
         <v>85</v>
       </c>
       <c r="E71" s="1">
-        <v>0.8597625600000001</v>
-      </c>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
+        <v>0.85976256000000006</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B72" s="1">
-        <v>2.0220621E7</v>
+        <v>20220621</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>6</v>
@@ -1999,15 +2026,15 @@
         <v>87</v>
       </c>
       <c r="E72" s="1">
-        <v>0.9627456000000004</v>
-      </c>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
+        <v>0.96274560000000042</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B73" s="1">
-        <v>2.0220622E7</v>
+        <v>20220622</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>8</v>
@@ -2019,12 +2046,12 @@
         <v>1.1379465306122447</v>
       </c>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B74" s="1">
-        <v>2.0220623E7</v>
+        <v>20220623</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>10</v>
@@ -2033,15 +2060,15 @@
         <v>89</v>
       </c>
       <c r="E74" s="1">
-        <v>0.66158796</v>
-      </c>
-    </row>
-    <row r="75" ht="15.75" customHeight="1">
+        <v>0.66158795999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B75" s="1">
-        <v>2.0220501E7</v>
+        <v>20220511</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>8</v>
@@ -2053,12 +2080,12 @@
         <v>2.2703592000000006</v>
       </c>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B76" s="1">
-        <v>2.0220511E7</v>
+        <v>20220511</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>6</v>
@@ -2070,12 +2097,12 @@
         <v>4.065787199999999</v>
       </c>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B77" s="1">
-        <v>2.0220511E7</v>
+        <v>20220511</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>10</v>
@@ -2087,12 +2114,12 @@
         <v>1.9078859999999997</v>
       </c>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B78" s="1">
-        <v>2.0220524E7</v>
+        <v>20220524</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>6</v>
@@ -2101,15 +2128,15 @@
         <v>94</v>
       </c>
       <c r="E78" s="1">
-        <v>2.0061264</v>
-      </c>
-    </row>
-    <row r="79" ht="15.75" customHeight="1">
+        <v>2.0061263999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B79" s="1">
-        <v>2.0220524E7</v>
+        <v>20220524</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>8</v>
@@ -2121,12 +2148,12 @@
         <v>0.6409236000000007</v>
       </c>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B80" s="1">
-        <v>2.0220524E7</v>
+        <v>20220524</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>10</v>
@@ -2138,12 +2165,12 @@
         <v>1.128738</v>
       </c>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B81" s="1">
-        <v>2.0220608E7</v>
+        <v>20220608</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>6</v>
@@ -2155,12 +2182,12 @@
         <v>1.7046299999999999</v>
       </c>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B82" s="1">
-        <v>2.0220608E7</v>
+        <v>20220608</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>8</v>
@@ -2169,15 +2196,15 @@
         <v>98</v>
       </c>
       <c r="E82" s="1">
-        <v>0.5616537600000001</v>
-      </c>
-    </row>
-    <row r="83" ht="15.75" customHeight="1">
+        <v>0.56165376000000011</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B83" s="1">
-        <v>2.0220608E7</v>
+        <v>20220608</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>10</v>
@@ -2189,12 +2216,12 @@
         <v>1.755444</v>
       </c>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B84" s="1">
-        <v>2.0220621E7</v>
+        <v>20220621</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>6</v>
@@ -2206,12 +2233,12 @@
         <v>1.3455443999999996</v>
       </c>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B85" s="1">
-        <v>2.0220621E7</v>
+        <v>20220621</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>8</v>
@@ -2220,15 +2247,15 @@
         <v>101</v>
       </c>
       <c r="E85" s="1">
-        <v>2.0586342</v>
-      </c>
-    </row>
-    <row r="86" ht="15.75" customHeight="1">
+        <v>2.0586342000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B86" s="1">
-        <v>2.0220621E7</v>
+        <v>20220621</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>10</v>
@@ -2237,15 +2264,15 @@
         <v>102</v>
       </c>
       <c r="E86" s="1">
-        <v>0.7865904000000002</v>
-      </c>
-    </row>
-    <row r="87" ht="15.75" customHeight="1">
+        <v>0.78659040000000024</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B87" s="1">
-        <v>2.0220712E7</v>
+        <v>20220712</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>6</v>
@@ -2254,15 +2281,15 @@
         <v>103</v>
       </c>
       <c r="E87" s="1">
-        <v>2.9140032</v>
-      </c>
-    </row>
-    <row r="88" ht="15.75" customHeight="1">
+        <v>2.9140031999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B88" s="1">
-        <v>2.0220712E7</v>
+        <v>20220712</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>8</v>
@@ -2274,12 +2301,12 @@
         <v>3.0766080000000002</v>
       </c>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B89" s="1">
-        <v>2.0220712E7</v>
+        <v>20220712</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>10</v>
@@ -2291,12 +2318,12 @@
         <v>2.5942348387096765</v>
       </c>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B90" s="1">
-        <v>2.0220728E7</v>
+        <v>20220728</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>6</v>
@@ -2305,15 +2332,15 @@
         <v>106</v>
       </c>
       <c r="E90" s="1">
-        <v>4.47839</v>
-      </c>
-    </row>
-    <row r="91" ht="15.75" customHeight="1">
+        <v>4.4783900000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B91" s="1">
-        <v>2.0220728E7</v>
+        <v>20220728</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>8</v>
@@ -2325,12 +2352,12 @@
         <v>2.3837240000000004</v>
       </c>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B92" s="1">
-        <v>2.0220728E7</v>
+        <v>20220728</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>10</v>
@@ -2342,12 +2369,12 @@
         <v>2.4853520000000007</v>
       </c>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B93" s="1">
-        <v>2.0220812E7</v>
+        <v>20220812</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>6</v>
@@ -2359,12 +2386,12 @@
         <v>4.3164696000000005</v>
       </c>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B94" s="1">
-        <v>2.0220812E7</v>
+        <v>20220812</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>8</v>
@@ -2373,15 +2400,15 @@
         <v>110</v>
       </c>
       <c r="E94" s="1">
-        <v>4.489237200000002</v>
-      </c>
-    </row>
-    <row r="95" ht="15.75" customHeight="1">
+        <v>4.4892372000000016</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B95" s="1">
-        <v>2.0220812E7</v>
+        <v>20220812</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>10</v>
@@ -2390,15 +2417,15 @@
         <v>111</v>
       </c>
       <c r="E95" s="1">
-        <v>2.687034</v>
-      </c>
-    </row>
-    <row r="96" ht="15.75" customHeight="1">
+        <v>2.6870340000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B96" s="1">
-        <v>2.0220819E7</v>
+        <v>20220819</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>6</v>
@@ -2407,15 +2434,15 @@
         <v>112</v>
       </c>
       <c r="E96" s="1">
-        <v>5.617308000000001</v>
-      </c>
-    </row>
-    <row r="97" ht="15.75" customHeight="1">
+        <v>5.6173080000000013</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B97" s="1">
-        <v>2.0220819E7</v>
+        <v>20220819</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>8</v>
@@ -2424,16 +2451,16 @@
         <v>113</v>
       </c>
       <c r="E97" s="1">
-        <f>average(6.2412936, 4.0488492)</f>
+        <f>AVERAGE(6.2412936, 4.0488492)</f>
         <v>5.1450714</v>
       </c>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B98" s="1">
-        <v>2.0220819E7</v>
+        <v>20220819</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>10</v>
@@ -2445,12 +2472,12 @@
         <v>2.57417931818182</v>
       </c>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B99" s="1">
-        <v>2.0220831E7</v>
+        <v>20220831</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>6</v>
@@ -2459,15 +2486,15 @@
         <v>115</v>
       </c>
       <c r="E99" s="1">
-        <v>6.158115294117644</v>
-      </c>
-    </row>
-    <row r="100" ht="15.75" customHeight="1">
+        <v>6.1581152941176436</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B100" s="1">
-        <v>2.0220831E7</v>
+        <v>20220831</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>6</v>
@@ -2479,12 +2506,12 @@
         <v>5.261610000000001</v>
       </c>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B101" s="1">
-        <v>2.0220831E7</v>
+        <v>20220831</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>8</v>
@@ -2496,12 +2523,12 @@
         <v>4.804284</v>
       </c>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B102" s="1">
-        <v>2.0220831E7</v>
+        <v>20220831</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>117</v>
@@ -2510,15 +2537,15 @@
         <v>118</v>
       </c>
       <c r="E102" s="1">
-        <v>4.320971294117648</v>
-      </c>
-    </row>
-    <row r="103" ht="15.75" customHeight="1">
+        <v>4.3209712941176477</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B103" s="1">
-        <v>2.0220831E7</v>
+        <v>20220831</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>10</v>
@@ -2527,15 +2554,15 @@
         <v>119</v>
       </c>
       <c r="E103" s="1">
-        <v>7.033324800000001</v>
-      </c>
-    </row>
-    <row r="104" ht="15.75" customHeight="1">
+        <v>7.0333248000000008</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B104" s="1">
-        <v>2.0220831E7</v>
+        <v>20220831</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>10</v>
@@ -2544,15 +2571,15 @@
         <v>119</v>
       </c>
       <c r="E104" s="1">
-        <v>4.292756399999999</v>
-      </c>
-    </row>
-    <row r="105" ht="15.75" customHeight="1">
+        <v>4.2927563999999991</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B105" s="1">
-        <v>2.0220928E7</v>
+        <v>20220928</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>6</v>
@@ -2561,15 +2588,15 @@
         <v>120</v>
       </c>
       <c r="E105" s="1">
-        <v>6.451324800000002</v>
-      </c>
-    </row>
-    <row r="106" ht="15.75" customHeight="1">
+        <v>6.4513248000000019</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B106" s="1">
-        <v>2.0220928E7</v>
+        <v>20220928</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>8</v>
@@ -2578,15 +2605,15 @@
         <v>121</v>
       </c>
       <c r="E106" s="1">
-        <v>4.181632799999998</v>
-      </c>
-    </row>
-    <row r="107" ht="15.75" customHeight="1">
+        <v>4.1816327999999983</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B107" s="1">
-        <v>2.0220928E7</v>
+        <v>20220928</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>10</v>
@@ -2595,15 +2622,15 @@
         <v>122</v>
       </c>
       <c r="E107" s="1">
-        <v>4.58409</v>
-      </c>
-    </row>
-    <row r="108" ht="15.75" customHeight="1">
+        <v>4.5840899999999998</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B108" s="1">
-        <v>2.0221019E7</v>
+        <v>20221019</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>6</v>
@@ -2615,12 +2642,12 @@
         <v>1.5928391999999993</v>
       </c>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B109" s="1">
-        <v>2.0221019E7</v>
+        <v>20221019</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>8</v>
@@ -2632,12 +2659,12 @@
         <v>1.6033407599999996</v>
       </c>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B110" s="1">
-        <v>2.0221019E7</v>
+        <v>20221019</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>10</v>
@@ -2649,12 +2676,12 @@
         <v>1.4607227999999994</v>
       </c>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B111" s="1">
-        <v>2.0221028E7</v>
+        <v>20221028</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>6</v>
@@ -2666,12 +2693,12 @@
         <v>2.3245607999999995</v>
       </c>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B112" s="1">
-        <v>2.0221028E7</v>
+        <v>20221028</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>8</v>
@@ -2683,12 +2710,12 @@
         <v>1.6538159999999993</v>
       </c>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B113" s="1">
-        <v>2.0221028E7</v>
+        <v>20221028</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>10</v>
@@ -2700,12 +2727,12 @@
         <v>1.6572035999999997</v>
       </c>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B114" s="1">
-        <v>2.0210602E7</v>
+        <v>20210602</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>130</v>
@@ -2717,12 +2744,12 @@
         <v>1.1910749999999999</v>
       </c>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B115" s="1">
-        <v>2.0220623E7</v>
+        <v>20220623</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>6</v>
@@ -2731,15 +2758,15 @@
         <v>132</v>
       </c>
       <c r="E115" s="1">
-        <v>5.746036800000001</v>
-      </c>
-    </row>
-    <row r="116" ht="15.75" customHeight="1">
+        <v>5.7460368000000006</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B116" s="1">
-        <v>2.0220623E7</v>
+        <v>20220623</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>8</v>
@@ -2751,12 +2778,12 @@
         <v>2.8428636000000007</v>
       </c>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B117" s="1">
-        <v>2.0220623E7</v>
+        <v>20220623</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>10</v>
@@ -2768,12 +2795,12 @@
         <v>2.1653435999999995</v>
       </c>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B118" s="1">
-        <v>2.0220726E7</v>
+        <v>20220726</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>6</v>
@@ -2785,12 +2812,12 @@
         <v>1.2066528000000003</v>
       </c>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B119" s="1">
-        <v>2.0220726E7</v>
+        <v>20220726</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>8</v>
@@ -2802,12 +2829,12 @@
         <v>1.2449326799999998</v>
       </c>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B120" s="1">
-        <v>2.0220726E7</v>
+        <v>20220726</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>10</v>
@@ -2816,15 +2843,15 @@
         <v>137</v>
       </c>
       <c r="E120" s="1">
-        <v>0.85366488</v>
-      </c>
-    </row>
-    <row r="121" ht="15.75" customHeight="1">
+        <v>0.85366487999999996</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B121" s="1">
-        <v>2.0220817E7</v>
+        <v>20220817</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>6</v>
@@ -2836,12 +2863,12 @@
         <v>3.7270271999999993</v>
       </c>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B122" s="1">
-        <v>2.0220817E7</v>
+        <v>20220817</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>8</v>
@@ -2850,15 +2877,15 @@
         <v>139</v>
       </c>
       <c r="E122" s="1">
-        <v>9.2088312</v>
-      </c>
-    </row>
-    <row r="123" ht="15.75" customHeight="1">
+        <v>9.2088312000000005</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B123" s="1">
-        <v>2.0220817E7</v>
+        <v>20220817</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>10</v>
@@ -2870,12 +2897,12 @@
         <v>10.204785600000001</v>
       </c>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B124" s="1">
-        <v>2.0220907E7</v>
+        <v>20220907</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>6</v>
@@ -2884,16 +2911,16 @@
         <v>141</v>
       </c>
       <c r="E124" s="1">
-        <f>average(1.4810484, 1.39059948)</f>
-        <v>1.43582394</v>
-      </c>
-    </row>
-    <row r="125" ht="15.75" customHeight="1">
+        <f>AVERAGE(1.4810484, 1.39059948)</f>
+        <v>1.4358239400000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B125" s="1">
-        <v>2.0220907E7</v>
+        <v>20220907</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>8</v>
@@ -2902,16 +2929,16 @@
         <v>142</v>
       </c>
       <c r="E125" s="1">
-        <f>average(0.83774316, 0.909802040816326)</f>
-        <v>0.8737726004</v>
-      </c>
-    </row>
-    <row r="126" ht="15.75" customHeight="1">
+        <f>AVERAGE(0.83774316, 0.909802040816326)</f>
+        <v>0.87377260040816296</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B126" s="1">
-        <v>2.0220907E7</v>
+        <v>20220907</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>10</v>
@@ -2920,16 +2947,16 @@
         <v>143</v>
       </c>
       <c r="E126" s="1">
-        <f>average(1.5149244, 1.8672348)</f>
-        <v>1.6910796</v>
-      </c>
-    </row>
-    <row r="127" ht="15.75" customHeight="1">
+        <f>AVERAGE(1.5149244, 1.8672348)</f>
+        <v>1.6910796000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B127" s="1">
-        <v>2.0221017E7</v>
+        <v>20221017</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>6</v>
@@ -2938,15 +2965,15 @@
         <v>144</v>
       </c>
       <c r="E127" s="1">
-        <v>3.5373216</v>
-      </c>
-    </row>
-    <row r="128" ht="15.75" customHeight="1">
+        <v>3.5373215999999998</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B128" s="1">
-        <v>2.0221017E7</v>
+        <v>20221017</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>8</v>
@@ -2955,16 +2982,16 @@
         <v>145</v>
       </c>
       <c r="E128" s="1">
-        <f>average(2.7310728, 2.991918)</f>
-        <v>2.8614954</v>
-      </c>
-    </row>
-    <row r="129" ht="15.75" customHeight="1">
+        <f>AVERAGE(2.7310728, 2.991918)</f>
+        <v>2.8614953999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B129" s="1">
-        <v>2.0221017E7</v>
+        <v>20221017</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>10</v>
@@ -2976,231 +3003,234 @@
         <v>1.68701448</v>
       </c>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="2" t="s">
+    <row r="130" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B130" s="3">
-        <v>2.0220615E7</v>
-      </c>
-      <c r="C130" s="4" t="s">
+      <c r="B130" s="2">
+        <v>20220615</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D130" s="3" t="s">
+      <c r="D130" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E130" s="2">
+      <c r="E130" s="1">
         <v>0.7</v>
       </c>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="2" t="s">
+    <row r="131" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B131" s="3">
-        <v>2.0220712E7</v>
-      </c>
-      <c r="C131" s="4" t="s">
+      <c r="B131" s="2">
+        <v>20220712</v>
+      </c>
+      <c r="C131" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D131" s="3" t="s">
+      <c r="D131" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E131" s="2">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="2" t="s">
+      <c r="E131" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B132" s="3">
-        <v>2.0220829E7</v>
-      </c>
-      <c r="C132" s="4" t="s">
+      <c r="B132" s="2">
+        <v>20220829</v>
+      </c>
+      <c r="C132" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D132" s="3" t="s">
+      <c r="D132" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E132" s="2">
-        <v>33.0</v>
-      </c>
-    </row>
-    <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="2" t="s">
+      <c r="E132" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B133" s="3">
-        <v>2.0220927E7</v>
-      </c>
-      <c r="C133" s="4" t="s">
+      <c r="B133" s="2">
+        <v>20220927</v>
+      </c>
+      <c r="C133" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D133" s="3" t="s">
+      <c r="D133" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E133" s="2">
-        <v>9.2</v>
-      </c>
-    </row>
-    <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="2" t="s">
+      <c r="E133" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B134" s="3">
-        <v>2.0220615E7</v>
-      </c>
-      <c r="C134" s="4" t="s">
+      <c r="B134" s="2">
+        <v>20220615</v>
+      </c>
+      <c r="C134" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D134" s="3" t="s">
+      <c r="D134" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E134" s="2">
+      <c r="E134" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="2" t="s">
+    <row r="135" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B135" s="3">
-        <v>2.0220712E7</v>
-      </c>
-      <c r="C135" s="4" t="s">
+      <c r="B135" s="2">
+        <v>20220712</v>
+      </c>
+      <c r="C135" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D135" s="3" t="s">
+      <c r="D135" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E135" s="2">
+      <c r="E135" s="1">
         <v>3.1</v>
       </c>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="2" t="s">
+    <row r="136" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B136" s="3">
-        <v>2.0220829E7</v>
-      </c>
-      <c r="C136" s="4" t="s">
+      <c r="B136" s="2">
+        <v>20220829</v>
+      </c>
+      <c r="C136" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D136" s="3" t="s">
+      <c r="D136" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E136" s="2">
+      <c r="E136" s="1">
         <v>8.4</v>
       </c>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="2" t="s">
+    <row r="137" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B137" s="5">
-        <v>2.0220927E7</v>
-      </c>
-      <c r="C137" s="4" t="s">
+      <c r="B137" s="2">
+        <v>20220927</v>
+      </c>
+      <c r="C137" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D137" s="5" t="s">
+      <c r="D137" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E137" s="4">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="2" t="s">
+      <c r="E137" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B138" s="5">
-        <v>2.0220615E7</v>
-      </c>
-      <c r="C138" s="4" t="s">
+      <c r="B138" s="2">
+        <v>20220615</v>
+      </c>
+      <c r="C138" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D138" s="5" t="s">
+      <c r="D138" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E138" s="4">
+      <c r="E138" s="3">
         <v>3.6</v>
       </c>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="2" t="s">
+    <row r="139" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B139" s="5">
-        <v>2.0220712E7</v>
-      </c>
-      <c r="C139" s="4" t="s">
+      <c r="B139" s="2">
+        <v>20220712</v>
+      </c>
+      <c r="C139" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D139" s="5" t="s">
+      <c r="D139" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E139" s="4">
+      <c r="E139" s="3">
         <v>2.9</v>
       </c>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="2" t="s">
+    <row r="140" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B140" s="5">
-        <v>2.0220829E7</v>
-      </c>
-      <c r="C140" s="4" t="s">
+      <c r="B140" s="2">
+        <v>20220829</v>
+      </c>
+      <c r="C140" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D140" s="5" t="s">
+      <c r="D140" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E140" s="4">
+      <c r="E140" s="3">
         <v>6.6</v>
       </c>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="2" t="s">
+    <row r="141" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B141" s="5">
-        <v>2.0220927E7</v>
-      </c>
-      <c r="C141" s="4" t="s">
+      <c r="B141" s="2">
+        <v>20220927</v>
+      </c>
+      <c r="C141" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D141" s="5" t="s">
+      <c r="D141" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E141" s="4">
+      <c r="E141" s="3">
         <v>0.2</v>
       </c>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="2" t="s">
+    <row r="142" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B142" s="5">
-        <v>2.0221019E7</v>
-      </c>
-      <c r="C142" s="4" t="s">
+      <c r="B142" s="2">
+        <v>20221019</v>
+      </c>
+      <c r="C142" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D142" s="5" t="s">
+      <c r="D142" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E142" s="4">
-        <v>4.0</v>
+      <c r="E142" s="3">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <autoFilter ref="A1:E142" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:E29">
+      <sortCondition ref="A1:A142"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>